--- a/Hardware/mood-badge-BOM.xlsx
+++ b/Hardware/mood-badge-BOM.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redne\Documents\Git\mood-badge-workshop\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0747F27-64CD-482A-9D06-C6F917F52B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1125" windowWidth="25875" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Orlando Hoilett</author>
+    <author>RedNeck SideKick</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{A9F47569-85D0-5C42-A1F5-FBCFBB5574F6}">
@@ -225,202 +235,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4414EC97-401B-5C4D-BF38-03085F1F044A}">
+    <comment ref="F38" authorId="1" shapeId="0" xr:uid="{F49B0330-8D01-44C2-A6F4-DFE88908CC5C}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{42ADFC76-2A16-3F4B-9937-20E1DF8DC9D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{92578C3E-17AC-CF40-B33B-C67DBD723ACA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B87F5F84-059E-824D-B1C3-C6D21A6C0FC3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8D3ED184-945A-F444-9885-2E4FC0FBB6A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
+          <t>This is the filtering capacitor for the LED matrix. The absolute size is not exactly important however since it needs relatively high capacitance (220uf) its probably going to be bigger</t>
         </r>
       </text>
     </comment>
@@ -429,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
   <si>
     <t>BOM #</t>
   </si>
@@ -446,18 +271,12 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Supplier Part Number</t>
-  </si>
-  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -470,18 +289,12 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Price per unit</t>
   </si>
   <si>
-    <t>10k resistor</t>
-  </si>
-  <si>
     <t>0603</t>
   </si>
   <si>
@@ -491,18 +304,6 @@
     <t>Stackpole Electronics Inc</t>
   </si>
   <si>
-    <t>1uF capacitor</t>
-  </si>
-  <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>Photoresistor</t>
-  </si>
-  <si>
-    <t>9V Battery Connector</t>
-  </si>
-  <si>
     <t>1µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -515,94 +316,544 @@
     <t>Per 100</t>
   </si>
   <si>
-    <t>White  LED Indication - Discrete 2.9V Radial</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
-    <t>Radial</t>
-  </si>
-  <si>
-    <t>American Bright Optoelectronics Corporation</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02-ND</t>
-  </si>
-  <si>
-    <t>White LED</t>
-  </si>
-  <si>
-    <t>Battery Connector, Snap 9V 1 Cell Wire Leads - 4" (101.6mm)</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>81-4</t>
-  </si>
-  <si>
-    <t>36-81-4-ND</t>
-  </si>
-  <si>
-    <t>9V</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit  8-SOIC</t>
-  </si>
-  <si>
-    <t>8-SOIC</t>
-  </si>
-  <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
     <t>OP1</t>
   </si>
   <si>
     <t>Total (in Bulk)</t>
   </si>
   <si>
-    <t>CDS Cell 520nm 27 ~ 60kOhms @ 10 lux</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Advanced Photonix</t>
-  </si>
-  <si>
-    <t>PDV-P8104</t>
-  </si>
-  <si>
-    <t>PDV-P8104-ND</t>
-  </si>
-  <si>
     <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
     <t>RMCF0603FT10K0</t>
   </si>
   <si>
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer or Organization Name</t>
+    <t>Supplier PN</t>
+  </si>
+  <si>
+    <t>Manufacturer PN</t>
+  </si>
+  <si>
+    <t>Mood Badge -- REV A / Ethan Kessel</t>
+  </si>
+  <si>
+    <t>PAM2401 Boost Converter</t>
+  </si>
+  <si>
+    <t>Boost Switching Regulator IC Positive Adjustable 2.5V 1 Output 1A 8-TSSOP, 8-MSOP (0.118", 3.00mm Width)</t>
+  </si>
+  <si>
+    <t>8-MSOP</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>PAM2401SCADJ</t>
+  </si>
+  <si>
+    <t>PAM2401SCADJDICT-ND</t>
+  </si>
+  <si>
+    <t>BOOST</t>
+  </si>
+  <si>
+    <t>MCP73831 T Li-Ion, Li-Pol Controller</t>
+  </si>
+  <si>
+    <t>Charger IC Lithium-Ion/Polymer SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OTCT-ND</t>
+  </si>
+  <si>
+    <t>CHRG</t>
+  </si>
+  <si>
+    <t>SparkFun LuMini LED Matrix</t>
+  </si>
+  <si>
+    <t>SparkFun Electronics</t>
+  </si>
+  <si>
+    <t>COM-15047</t>
+  </si>
+  <si>
+    <t>1568-COM-15047-ND</t>
+  </si>
+  <si>
+    <t>RGB LED Matrix</t>
+  </si>
+  <si>
+    <t>RGB1</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Micro USB</t>
+  </si>
+  <si>
+    <t>USB - micro B USB 2.0 Receptacle Connector 5 Position Surface Mount, Right Angle</t>
+  </si>
+  <si>
+    <t>Flange, Horizontal</t>
+  </si>
+  <si>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>10118192-0001LF</t>
+  </si>
+  <si>
+    <t>609-4613-1-ND</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>ATmega328</t>
+  </si>
+  <si>
+    <t>AVR AVR® ATmega Microcontroller IC 8-Bit 20MHz 32KB (16K x 16) FLASH 32-TQFP (7x7)</t>
+  </si>
+  <si>
+    <t>32-TQFP (7x7)</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AUR</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AURCT-ND</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER</t>
+  </si>
+  <si>
+    <t>Cylindrical Can, Radial</t>
+  </si>
+  <si>
+    <t>EPSON</t>
+  </si>
+  <si>
+    <t>XTAL</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>Diode Schottky 30V 1.5A Surface Mount USC</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Toshiba Semiconductor and Storage</t>
+  </si>
+  <si>
+    <t>CUS15S30,H3F</t>
+  </si>
+  <si>
+    <t>CUS15S30H3FCT-ND</t>
+  </si>
+  <si>
+    <t>D2, D3, D4, D5, D6</t>
+  </si>
+  <si>
+    <t>MCP6001</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 1 Circuit Rail-to-Rail SOT-23-5</t>
+  </si>
+  <si>
+    <t>MCP6001T-E/OTCT-ND</t>
+  </si>
+  <si>
+    <t>APDS-9008</t>
+  </si>
+  <si>
+    <t>Optical Sensor Ambient 565nm Current 6-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>6-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>Broadcom Limited</t>
+  </si>
+  <si>
+    <t>APDS-9008-020</t>
+  </si>
+  <si>
+    <t>516-2662-1-ND</t>
+  </si>
+  <si>
+    <t>SENS</t>
+  </si>
+  <si>
+    <t>8MHz Crystal</t>
+  </si>
+  <si>
+    <t>8MHz ±30ppm Crystal 18pF 80 Ohm -20°C ~ 70°C Through Hole Cylindrical Can, Radial</t>
+  </si>
+  <si>
+    <t>CA-301 8.0000M-C:PBFREE</t>
+  </si>
+  <si>
+    <t>SER3414-ND</t>
+  </si>
+  <si>
+    <t>JST Connector</t>
+  </si>
+  <si>
+    <t>LIPO</t>
+  </si>
+  <si>
+    <t>JST Right Angle Connector - White</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>4UCOM Technology Inc.</t>
+  </si>
+  <si>
+    <t>Sparkfun Electronics</t>
+  </si>
+  <si>
+    <t>PRT-08612</t>
+  </si>
+  <si>
+    <t>Tiny Rectangular Button</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t>Gull Wing</t>
+  </si>
+  <si>
+    <t>C&amp;K Components</t>
+  </si>
+  <si>
+    <t>PTS830GM140 SMTR LFS</t>
+  </si>
+  <si>
+    <t>CKN10587CT-ND</t>
+  </si>
+  <si>
+    <t>Square Button</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS645SM43SMTR92 LFS</t>
+  </si>
+  <si>
+    <t>CKN9112CT-ND</t>
+  </si>
+  <si>
+    <t>LEFT, RIGHT, UP, DOWN, A_BTN, B_BTN</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE DPDT 300MA 6V</t>
+  </si>
+  <si>
+    <t>J Lead</t>
+  </si>
+  <si>
+    <t>JS202011JCQN</t>
+  </si>
+  <si>
+    <t>CKN10723CT-ND</t>
+  </si>
+  <si>
+    <t>POWER,MODE</t>
+  </si>
+  <si>
+    <t>Mini Speaker - PC Mount 12mm 2.048kHz</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>CUI Inc.</t>
+  </si>
+  <si>
+    <t>CEM-1203(42)</t>
+  </si>
+  <si>
+    <t>COM-07950</t>
+  </si>
+  <si>
+    <t>Green LED</t>
+  </si>
+  <si>
+    <t>Green 571 nm, 2 V</t>
+  </si>
+  <si>
+    <t>Lite-On Inc</t>
+  </si>
+  <si>
+    <t>LTST-C190KGKT</t>
+  </si>
+  <si>
+    <t>160-1435-1-ND</t>
+  </si>
+  <si>
+    <t>UP_LED, DOWN_LED, LEFT_LED, RIGHT_LED, A_BTN_LED, B_BTN_LED, MODE_1, MODE_2, PWR, CHG</t>
+  </si>
+  <si>
+    <t>Right Angle, 6Pos Male Headers</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>40 Positions Header, Breakaway Connector 0.100" (2.54mm) Through Hole, Right Angle Gold</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>PRPC040SBAN-M71RC</t>
+  </si>
+  <si>
+    <t>S1111EC-40-ND</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>10k Resistor</t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R6, R8, R10, R12, R14, R18</t>
+  </si>
+  <si>
+    <t>100k Resistor</t>
+  </si>
+  <si>
+    <t>R2, R25, R26</t>
+  </si>
+  <si>
+    <t>1k Resistor</t>
+  </si>
+  <si>
+    <t>R5, R7, R9, R11, R13, R15, R16, R17</t>
+  </si>
+  <si>
+    <t>210k Resistor</t>
+  </si>
+  <si>
+    <t>R21, R22</t>
+  </si>
+  <si>
+    <t>750k Resistor</t>
+  </si>
+  <si>
+    <t>R24, R27</t>
+  </si>
+  <si>
+    <t>487 Resistor</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>180 Resistor</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>12k Resistor</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>3.3M Resistor</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>100n Capacitor</t>
+  </si>
+  <si>
+    <t>2.2u Inductor</t>
+  </si>
+  <si>
+    <t>4.7u Capacitor</t>
+  </si>
+  <si>
+    <t>C7, C8, C15, C16, C18</t>
+  </si>
+  <si>
+    <t>22u Capacitor</t>
+  </si>
+  <si>
+    <t>C22, C23, C24</t>
+  </si>
+  <si>
+    <t>22p Capacitor</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>2.2u Capacitor</t>
+  </si>
+  <si>
+    <t>C4, C17</t>
+  </si>
+  <si>
+    <t>1u Capacitor</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C3, C5, C9, C10, C11, C12, C13, C14, C19, C21</t>
+  </si>
+  <si>
+    <t>NPN Transistor</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>220u Capacitor</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>GRM188R61C225KE15D</t>
+  </si>
+  <si>
+    <t>490-3296-1-ND</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>4.7k Resistor</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>4.7 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>100 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100KCT-ND</t>
+  </si>
+  <si>
+    <t>0.1µF ±5% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1776-1-ND</t>
+  </si>
+  <si>
+    <t>22µF ±20% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A226MP8NUNE</t>
+  </si>
+  <si>
+    <t>1276-1274-1-ND</t>
+  </si>
+  <si>
+    <t>Bipolar (BJT) Transistor NPN 40V 600mA 300MHz 250mW Surface Mount TO-236AB</t>
+  </si>
+  <si>
+    <t>TO-236AB</t>
+  </si>
+  <si>
+    <t>Nexperia USA Inc.</t>
+  </si>
+  <si>
+    <t>PMBT2222A,215</t>
+  </si>
+  <si>
+    <t>1727-2956-1-ND</t>
+  </si>
+  <si>
+    <t>2x3 Male Pin Headers</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 6 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>Adam Tech</t>
+  </si>
+  <si>
+    <t>PH2-06-UA</t>
+  </si>
+  <si>
+    <t>2057-PH2-06-UA-ND</t>
   </si>
 </sst>
 </file>
@@ -613,7 +864,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,14 +935,34 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +978,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +1049,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -855,8 +1132,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,16 +1151,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,8 +1163,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="82" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="82" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="83">
+    <cellStyle name="Currency" xfId="82" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1314,63 +1611,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="14"/>
+    <col min="12" max="12" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1"/>
+    <col min="14" max="14" width="10.875" style="14"/>
+    <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6">
-        <f>SUM(M3:M77)</f>
-        <v>2.48</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>47</v>
+        <f>SUM(M3:M75)</f>
+        <v>43.839999999999996</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="O1" s="6">
-        <f>SUM(O3:O77)</f>
-        <v>1.1271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+        <f>SUM(O3:O75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1380,339 +1679,1417 @@
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="13">
+        <v>2.14</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M38" si="0">K3*L3</f>
+        <v>2.14</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1.95</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.95</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="13">
+        <v>25.95</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>25.95</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1.04</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <f>K18*L18</f>
+        <v>1.05</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="8">
+        <f>K20*L20</f>
+        <v>2.7</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <f>K21*L21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="1">
+        <v>9</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="1">
+        <v>8</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="L32" s="1">
+        <v>10</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="1">
+        <v>5</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="H34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.1391</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
-        <v>0.1391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="K35" s="13"/>
+      <c r="L35" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
+      <c r="M35" s="8">
         <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.3982</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.3982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="8">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="N6" s="10">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>9.0899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="I37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13">
         <v>0.1</v>
       </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="N7" s="10">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>2.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="L37" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M37" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="N8" s="10">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="O8" s="10">
-        <f>L8*N8</f>
-        <v>1.8499999999999999E-2</v>
-      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Hardware/mood-badge-BOM.xlsx
+++ b/Hardware/mood-badge-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redne\Documents\Git\mood-badge-workshop\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0747F27-64CD-482A-9D06-C6F917F52B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F9524-B928-43C1-BE90-01B60BF35655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="1125" windowWidth="25875" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,9 +472,6 @@
     <t>CUS15S30H3FCT-ND</t>
   </si>
   <si>
-    <t>D2, D3, D4, D5, D6</t>
-  </si>
-  <si>
     <t>MCP6001</t>
   </si>
   <si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>2057-PH2-06-UA-ND</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5</t>
   </si>
 </sst>
 </file>
@@ -1154,15 +1154,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="82" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1181,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Currency" xfId="82" builtinId="4"/>
@@ -1614,42 +1614,42 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="14"/>
+    <col min="11" max="11" width="10.875" style="11"/>
     <col min="12" max="12" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="1"/>
-    <col min="14" max="14" width="10.875" style="14"/>
+    <col min="14" max="14" width="10.875" style="11"/>
     <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="18"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1657,7 @@
         <f>SUM(M3:M75)</f>
         <v>43.839999999999996</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="12" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="6">
@@ -1669,7 +1669,7 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1681,7 +1681,7 @@
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1696,7 +1696,7 @@
       <c r="J2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1705,7 +1705,7 @@
       <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1728,7 +1728,7 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1743,7 +1743,7 @@
       <c r="J3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>2.14</v>
       </c>
       <c r="L3" s="1">
@@ -1753,41 +1753,41 @@
         <f t="shared" ref="M3:M38" si="0">K3*L3</f>
         <v>2.14</v>
       </c>
-      <c r="N3" s="13"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="13">
+        <v>85</v>
+      </c>
+      <c r="K4" s="10">
         <v>0.83</v>
       </c>
       <c r="L4" s="1">
@@ -1797,38 +1797,38 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="13">
+        <v>128</v>
+      </c>
+      <c r="K5" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="L5" s="1">
@@ -1838,35 +1838,35 @@
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="13">
+        <v>198</v>
+      </c>
+      <c r="K6" s="10">
         <v>0.12</v>
       </c>
       <c r="L6" s="1">
@@ -1876,41 +1876,41 @@
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="13">
+        <v>99</v>
+      </c>
+      <c r="K7" s="10">
         <v>0.56000000000000005</v>
       </c>
       <c r="L7" s="1">
@@ -1920,41 +1920,41 @@
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="13">
+        <v>103</v>
+      </c>
+      <c r="K8" s="10">
         <v>0.15</v>
       </c>
       <c r="L8" s="1">
@@ -1964,41 +1964,41 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="N8" s="13"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="13">
+        <v>109</v>
+      </c>
+      <c r="K9" s="10">
         <v>0.48</v>
       </c>
       <c r="L9" s="1">
@@ -2008,38 +2008,38 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <v>1.95</v>
       </c>
       <c r="L10" s="1">
@@ -2049,11 +2049,11 @@
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2068,7 +2068,7 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2083,7 +2083,7 @@
       <c r="J11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <v>0.43</v>
       </c>
       <c r="L11" s="1">
@@ -2093,38 +2093,38 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <v>0.95</v>
       </c>
       <c r="L12" s="1">
@@ -2134,11 +2134,11 @@
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2153,7 +2153,7 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2168,7 +2168,7 @@
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <v>0.56000000000000005</v>
       </c>
       <c r="L13" s="1">
@@ -2178,11 +2178,11 @@
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2197,7 +2197,7 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2212,7 +2212,7 @@
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <v>1.05</v>
       </c>
       <c r="L14" s="1">
@@ -2222,11 +2222,11 @@
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="N14" s="13"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2241,8 +2241,8 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>164</v>
+      <c r="F15" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>44</v>
@@ -2256,7 +2256,7 @@
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>25.95</v>
       </c>
       <c r="L15" s="1">
@@ -2266,41 +2266,41 @@
         <f t="shared" si="0"/>
         <v>25.95</v>
       </c>
-      <c r="N15" s="13"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="13">
+        <v>74</v>
+      </c>
+      <c r="K16" s="10">
         <v>0.28999999999999998</v>
       </c>
       <c r="L16" s="1">
@@ -2312,37 +2312,37 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="13">
+        <v>80</v>
+      </c>
+      <c r="K17" s="10">
         <v>1.04</v>
       </c>
       <c r="L17" s="1">
@@ -2354,37 +2354,37 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K18" s="13">
+        <v>193</v>
+      </c>
+      <c r="K18" s="10">
         <v>1.05</v>
       </c>
       <c r="L18" s="1">
@@ -2394,18 +2394,18 @@
         <f>K18*L18</f>
         <v>1.05</v>
       </c>
-      <c r="N18" s="13"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
@@ -2413,7 +2413,7 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2428,7 +2428,7 @@
       <c r="J19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <v>0.26</v>
       </c>
       <c r="L19" s="1">
@@ -2441,37 +2441,37 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="13">
+        <v>121</v>
+      </c>
+      <c r="K20" s="10">
         <v>0.27</v>
       </c>
       <c r="L20" s="1">
@@ -2481,27 +2481,27 @@
         <f>K20*L20</f>
         <v>2.7</v>
       </c>
-      <c r="N20" s="13"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="13"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="1">
         <v>1</v>
       </c>
@@ -2509,18 +2509,18 @@
         <f>K21*L21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -2528,7 +2528,7 @@
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2543,7 +2543,7 @@
       <c r="J22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="10">
         <v>0.01</v>
       </c>
       <c r="L22" s="1">
@@ -2555,37 +2555,37 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K23" s="13">
+        <v>181</v>
+      </c>
+      <c r="K23" s="10">
         <v>0.01</v>
       </c>
       <c r="L23" s="1">
@@ -2597,37 +2597,37 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K24" s="13">
+        <v>173</v>
+      </c>
+      <c r="K24" s="10">
         <v>0.01</v>
       </c>
       <c r="L24" s="1">
@@ -2639,23 +2639,23 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="1">
         <v>2</v>
       </c>
@@ -2665,23 +2665,23 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="13"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="1">
         <v>2</v>
       </c>
@@ -2691,23 +2691,23 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="1">
         <v>1</v>
       </c>
@@ -2717,23 +2717,23 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="13"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="1">
         <v>1</v>
       </c>
@@ -2743,23 +2743,23 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="1">
         <v>1</v>
       </c>
@@ -2769,59 +2769,59 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K30" s="13">
+        <v>178</v>
+      </c>
+      <c r="K30" s="10">
         <v>0.01</v>
       </c>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="13"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="1">
         <v>1</v>
       </c>
@@ -2831,37 +2831,37 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K32" s="13">
+        <v>185</v>
+      </c>
+      <c r="K32" s="10">
         <v>0.03</v>
       </c>
       <c r="L32" s="1">
@@ -2873,23 +2873,23 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="1">
         <v>5</v>
       </c>
@@ -2899,37 +2899,37 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34" s="13">
+        <v>188</v>
+      </c>
+      <c r="K34" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L34" s="1">
@@ -2941,23 +2941,23 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="13"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="1">
         <v>2</v>
       </c>
@@ -2967,37 +2967,37 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="13">
+        <v>170</v>
+      </c>
+      <c r="K36" s="10">
         <v>0.13</v>
       </c>
       <c r="L36" s="1">
@@ -3009,14 +3009,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -3024,7 +3024,7 @@
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3039,7 +3039,7 @@
       <c r="J37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="10">
         <v>0.1</v>
       </c>
       <c r="L37" s="1">
@@ -3051,23 +3051,23 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="K38" s="13"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="1">
         <v>1</v>
       </c>
@@ -3077,10 +3077,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K39" s="13"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K40" s="13"/>
+      <c r="K40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Hardware/mood-badge-BOM.xlsx
+++ b/Hardware/mood-badge-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redne\Documents\Git\mood-badge-workshop\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F9524-B928-43C1-BE90-01B60BF35655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B82D60-5733-4E61-AE2E-C8D1C7E692AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1125" windowWidth="25875" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="1" shapeId="0" xr:uid="{F49B0330-8D01-44C2-A6F4-DFE88908CC5C}">
+    <comment ref="F39" authorId="1" shapeId="0" xr:uid="{F49B0330-8D01-44C2-A6F4-DFE88908CC5C}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="239">
   <si>
     <t>BOM #</t>
   </si>
@@ -854,6 +854,123 @@
   </si>
   <si>
     <t>D1, D2, D3, D4, D5</t>
+  </si>
+  <si>
+    <t>ICSP</t>
+  </si>
+  <si>
+    <t>Unshielded Multilayer Inductor 300mOhm Max 0603 (1608 Metric) -</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>CKP1608D2R2M-T</t>
+  </si>
+  <si>
+    <t>587-6300-1-ND</t>
+  </si>
+  <si>
+    <t>210 ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT210K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT210KCT-ND</t>
+  </si>
+  <si>
+    <t>750 ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT750K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT750KCT-ND</t>
+  </si>
+  <si>
+    <t>487 ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>RC0603FR-07487RL</t>
+  </si>
+  <si>
+    <t>311-487HRCT-ND</t>
+  </si>
+  <si>
+    <t>180 ±1% 0.125W, 1/8W Chip Resistor 0603 (1608 Metric) Anti-Sulfur, Moisture Resistant Thin Film</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD180R</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD180RCT-ND</t>
+  </si>
+  <si>
+    <t>12 ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT12K0</t>
+  </si>
+  <si>
+    <t>RMCF0603FT12K0CT-ND</t>
+  </si>
+  <si>
+    <t>3.3 ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT3M30</t>
+  </si>
+  <si>
+    <t>RMCF0603FT3M30CT-ND</t>
+  </si>
+  <si>
+    <t>±10% 6.3V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A475KQ8NNWC</t>
+  </si>
+  <si>
+    <t>1276-1902-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>CML0603C0G2R2CT50V</t>
+  </si>
+  <si>
+    <t>738-CML0603C0G2R2CT50VCT-ND</t>
+  </si>
+  <si>
+    <t>±20% 6.3V Ceramic Capacitor X5R 1206 (3216 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>GRM31CR60J227ME11L</t>
+  </si>
+  <si>
+    <t>490-13970-1-ND</t>
+  </si>
+  <si>
+    <t>3.7v LiPo Battery</t>
+  </si>
+  <si>
+    <t>Lithium Ion Battery - 3.7v 2000mAh</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>PKCELL</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
 </sst>
 </file>
@@ -864,7 +981,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -954,15 +1071,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,12 +1088,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,8 +1283,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1292,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Currency" xfId="82" builtinId="4"/>
@@ -1611,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1637,12 +1741,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="4"/>
       <c r="F1" s="15"/>
       <c r="G1" s="4"/>
@@ -1654,14 +1758,14 @@
         <v>11</v>
       </c>
       <c r="M1" s="6">
-        <f>SUM(M3:M75)</f>
-        <v>43.839999999999996</v>
+        <f>SUM(M3:M76)</f>
+        <v>59.42</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="6">
-        <f>SUM(O3:O75)</f>
+        <f>SUM(O3:O76)</f>
         <v>0</v>
       </c>
     </row>
@@ -1750,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" ref="M3:M38" si="0">K3*L3</f>
+        <f t="shared" ref="M3:M39" si="0">K3*L3</f>
         <v>2.14</v>
       </c>
       <c r="N3" s="10"/>
@@ -1848,6 +1952,9 @@
       <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>195</v>
       </c>
@@ -2101,38 +2208,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>237</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="K12" s="10">
-        <v>0.95</v>
+        <v>12.5</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>12.5</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="8"/>
@@ -2142,41 +2243,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K13" s="10">
-        <v>0.56000000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="8"/>
@@ -2186,41 +2284,41 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K14" s="10">
-        <v>1.05</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="8"/>
@@ -2230,41 +2328,41 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K15" s="10">
-        <v>25.95</v>
+        <v>1.05</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="0"/>
-        <v>25.95</v>
+        <v>1.05</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="8"/>
@@ -2274,83 +2372,85 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K16" s="10">
-        <v>0.28999999999999998</v>
+        <v>25.95</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
-      </c>
+        <v>25.95</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K17" s="10">
-        <v>1.04</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2358,86 +2458,85 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>189</v>
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="K18" s="10">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
       </c>
       <c r="M18" s="8">
-        <f>K18*L18</f>
-        <v>1.05</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="8"/>
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>162</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="K19" s="10">
-        <v>0.26</v>
+        <v>1.05</v>
       </c>
       <c r="L19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
+        <f>K19*L19</f>
+        <v>1.05</v>
+      </c>
+      <c r="N19" s="10"/>
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2445,43 +2544,42 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>13</v>
+      <c r="F20" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K20" s="10">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="L20" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M20" s="8">
-        <f>K20*L20</f>
-        <v>2.7</v>
-      </c>
-      <c r="N20" s="10"/>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2489,25 +2587,41 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="G21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.27</v>
+      </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M21" s="8">
         <f>K21*L21</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="8"/>
@@ -2517,13 +2631,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>129</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -2532,40 +2646,42 @@
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="K22" s="10">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="L22" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
+        <f>K22*L22</f>
+        <v>0.16</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -2577,23 +2693,23 @@
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="K23" s="10">
         <v>0.01</v>
       </c>
       <c r="L23" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2601,13 +2717,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -2619,23 +2735,23 @@
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K24" s="10">
         <v>0.01</v>
       </c>
       <c r="L24" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2643,25 +2759,41 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="10"/>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.01</v>
+      </c>
       <c r="L25" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2669,25 +2801,41 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>205</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.1</v>
+      </c>
       <c r="L26" s="1">
         <v>2</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2695,25 +2843,41 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="20"/>
+        <v>139</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>208</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.1</v>
+      </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2721,25 +2885,41 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="G28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.1</v>
+      </c>
       <c r="L28" s="1">
         <v>1</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2747,25 +2927,41 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="10"/>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.1</v>
+      </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2773,13 +2969,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>145</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -2791,43 +2987,65 @@
         <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="K30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="M30" s="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="20"/>
+        <v>175</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="10"/>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.01</v>
+      </c>
       <c r="L31" s="1">
         <v>1</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2835,13 +3053,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -2850,26 +3068,26 @@
         <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="K32" s="10">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2877,25 +3095,41 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="20"/>
+        <v>160</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="10"/>
+      <c r="G33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.03</v>
+      </c>
       <c r="L33" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2903,13 +3137,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -2921,23 +3155,23 @@
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="K34" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="0"/>
-        <v>0.21000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2945,25 +3179,41 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="L35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2971,13 +3221,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -2986,26 +3236,26 @@
         <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="K36" s="10">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="L36" s="1">
         <v>2</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -3013,13 +3263,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
@@ -3028,26 +3278,26 @@
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="K37" s="10">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="L37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -3055,32 +3305,90 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="K38" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.1</v>
+      </c>
       <c r="L38" s="1">
         <v>1</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K39" s="10"/>
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1.41</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="0"/>
+        <v>1.41</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
